--- a/ЛР5.xlsx
+++ b/ЛР5.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\учеба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3CEC13-19FF-4E49-A42C-54EA79EEE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929AF803-9715-43B6-B425-BA8924249500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -473,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -491,15 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -522,6 +514,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,6 +541,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19E01B9-9806-4115-9BEB-DF03FFBB1793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="209550"/>
+          <a:ext cx="8524875" cy="1528450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>172177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE6BD1E-8298-4CE5-A888-ACEB8A595471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2905125"/>
+          <a:ext cx="8582025" cy="2791552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <f>-0.158-0.176*N1+0.008*N1*N1</f>
         <v>0.22599999999999998</v>
@@ -875,8 +984,16 @@
         <f>20.5-0.2*N1</f>
         <v>15.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="42" t="str">
+        <f>IF(ABS(C1)+ABS(D1)+ABS(E1)&lt;ABS(B1), "да", "нет")</f>
+        <v>да</v>
+      </c>
+      <c r="K2" s="42" t="str">
+        <f>IF(ABS(C1)+ABS(D1)+ABS(E1)&lt;=ABS(B1), "да", "нет")</f>
+        <v>да</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <f>-6.41-0.23*N1+0.01*N1*N1</f>
         <v>-6.17</v>
@@ -896,6 +1013,14 @@
       <c r="F3" s="13">
         <f>9.1-0.3*N1</f>
         <v>1.9000000000000004</v>
+      </c>
+      <c r="J3" s="44" t="str">
+        <f>IF(ABS(B2)+ABS(D2)+ABS(E2)&lt;ABS(C2), "да", "нет")</f>
+        <v>нет</v>
+      </c>
+      <c r="K3" s="44" t="str">
+        <f>IF(ABS(B2)+ABS(D2)+ABS(E2)&lt;=ABS(C2), "да", "нет")</f>
+        <v>нет</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -919,35 +1044,52 @@
         <f>60.8-332.546*N1-7.348*N1*N1+0.334*N1*N1*N1</f>
         <v>-7535.5360000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="J4" s="44" t="str">
+        <f>IF(ABS(B3)+ABS(C3)+ABS(E3)&lt;ABS(D3), "да", "нет")</f>
+        <v>да</v>
+      </c>
+      <c r="K4" s="44" t="str">
+        <f>IF(ABS(B3)+ABS(C3)+ABS(E3)&lt;=ABS(D3), "да", "нет")</f>
+        <v>да</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="43" t="str">
+        <f>IF(ABS(B4)+ABS(C4)+ABS(D4)&lt;ABS(E4), "да", "нет")</f>
+        <v>нет</v>
+      </c>
+      <c r="K5" s="43" t="str">
+        <f>IF(ABS(B4)+ABS(C4)+ABS(D4)&lt;=ABS(E4), "да", "нет")</f>
+        <v>нет</v>
+      </c>
+    </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -955,47 +1097,47 @@
       <c r="A8" s="13">
         <v>0</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <f>F1/B1</f>
         <v>0.21357063403781976</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <f>F2/C2</f>
         <v>-5.8148148148148389</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="23">
         <f>F3/D3</f>
         <v>-4.7696749089996236E-3</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <f>F4/E4</f>
         <v>22.673494809688577</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <f>1/$B$1*($F$1-$C$1*C8-$D$1*D8-$E$1*E8)</f>
         <v>2.6965829415944724</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <f>1/$C$2*($F$2-$B$2*B8-$D$2*D8-$E$2*E8)</f>
         <v>137.57575088659195</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <f>1/$D$3*($F$3-$B$3*B8-$C$3*C8-$E$3*E8)</f>
         <v>-0.46130362462772007</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <f>1/$E$4*($F$4-$B$4*B8-$C$4*C8-$D$4*D8)</f>
         <v>22.758873048622629</v>
       </c>
@@ -1024,19 +1166,19 @@
       <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <f>1/$B$1*($F$1-$C$1*C9-$D$1*D9-$E$1*E9)</f>
         <v>-1.578020377826439</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <f>1/$C$2*($F$2-$B$2*B9-$D$2*D9-$E$2*E9)</f>
         <v>140.79440068707399</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <f>1/$D$3*($F$3-$B$3*B9-$C$3*C9-$E$3*E9)</f>
         <v>-0.90756767703513852</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="20">
         <f>1/$E$4*($F$4-$B$4*B9-$C$4*C9-$D$4*D9)</f>
         <v>24.377413287556418</v>
       </c>
@@ -1065,24 +1207,24 @@
       <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <f t="shared" ref="B11:B12" si="4">1/$B$1*($F$1-$C$1*C10-$D$1*D10-$E$1*E10)</f>
         <v>-1.5074743193648057</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <f t="shared" ref="C11:C12" si="5">1/$C$2*($F$2-$B$2*B10-$D$2*D10-$E$2*E10)</f>
         <v>153.08481712792315</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <f t="shared" ref="D11:D12" si="6">1/$D$3*($F$3-$B$3*B10-$C$3*C10-$E$3*E10)</f>
         <v>-0.88400178911195126</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <f t="shared" ref="E11:E12" si="7">1/$E$4*($F$4-$B$4*B10-$C$4*C10-$D$4*D10)</f>
         <v>23.271989260025947</v>
       </c>
       <c r="F11" s="13" t="str">
-        <f t="shared" ref="F11:F29" si="8">IF(MAX(J11:M11)&lt;$H$1, "да", "нет")</f>
+        <f t="shared" ref="F11:F27" si="8">IF(MAX(J11:M11)&lt;$H$1, "да", "нет")</f>
         <v>нет</v>
       </c>
       <c r="J11" s="6">
@@ -1106,19 +1248,19 @@
       <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <f t="shared" si="4"/>
         <v>-1.9874576455688677</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <f t="shared" si="5"/>
         <v>145.97443319205561</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <f t="shared" si="6"/>
         <v>-0.89699764665131287</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <f t="shared" si="7"/>
         <v>23.277632241855553</v>
       </c>
@@ -1147,19 +1289,19 @@
       <c r="A13" s="13">
         <v>5</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <f>1/$B$1*($F$1-$C$1*C12-$D$1*D12-$E$1*E12)</f>
         <v>-1.7743335698958487</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <f>1/$C$2*($F$2-$B$2*B12-$D$2*D12-$E$2*E12)</f>
         <v>146.040274277311</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <f>1/$D$3*($F$3-$B$3*B12-$C$3*C12-$E$3*E12)</f>
         <v>-0.86954579698072243</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="20">
         <f>1/$E$4*($F$4-$B$4*B12-$C$4*C12-$D$4*D12)</f>
         <v>23.10291367282116</v>
       </c>
@@ -1188,19 +1330,19 @@
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <f t="shared" ref="B14:B18" si="9">1/$B$1*($F$1-$C$1*C13-$D$1*D13-$E$1*E13)</f>
         <v>-1.7942121524595058</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <f t="shared" ref="C14:C18" si="10">1/$C$2*($F$2-$B$2*B13-$D$2*D13-$E$2*E13)</f>
         <v>144.80491825382913</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <f t="shared" ref="D14:D18" si="11">1/$D$3*($F$3-$B$3*B13-$C$3*C13-$E$3*E13)</f>
         <v>-0.8694139196351689</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="20">
         <f t="shared" ref="E14:E18" si="12">1/$E$4*($F$4-$B$4*B13-$C$4*C13-$D$4*D13)</f>
         <v>23.151710956802471</v>
       </c>
@@ -1229,19 +1371,19 @@
       <c r="A15" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <f t="shared" si="9"/>
         <v>-1.7523241936979963</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <f t="shared" si="10"/>
         <v>145.11104781767122</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <f t="shared" si="11"/>
         <v>-0.86661874639181136</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <f t="shared" si="12"/>
         <v>23.143071613416609</v>
       </c>
@@ -1270,19 +1412,19 @@
       <c r="A16" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <f t="shared" si="9"/>
         <v>-1.7623646365859469</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <f t="shared" si="10"/>
         <v>145.04480501222864</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <f t="shared" si="11"/>
         <v>-0.86795543772343486</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <f t="shared" si="12"/>
         <v>23.156067084268685</v>
       </c>
@@ -1311,19 +1453,19 @@
       <c r="A17" s="13">
         <v>9</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <f t="shared" si="9"/>
         <v>-1.7590557534561173</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <f t="shared" si="10"/>
         <v>145.13335981018145</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <f t="shared" si="11"/>
         <v>-0.8678815509613248</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <f t="shared" si="12"/>
         <v>23.153783697733605</v>
       </c>
@@ -1352,19 +1494,19 @@
       <c r="A18" s="13">
         <v>10</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <f t="shared" si="9"/>
         <v>-1.7619350870093278</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <f t="shared" si="10"/>
         <v>145.11880077991927</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <f t="shared" si="11"/>
         <v>-0.868136259422011</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <f t="shared" si="12"/>
         <v>23.155031679179579</v>
       </c>
@@ -1393,19 +1535,19 @@
       <c r="A19" s="13">
         <v>11</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <f t="shared" ref="B19:B21" si="13">1/$B$1*($F$1-$C$1*C18-$D$1*D18-$E$1*E18)</f>
         <v>-1.7613718066061015</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <f t="shared" ref="C19:C21" si="14">1/$C$2*($F$2-$B$2*B18-$D$2*D18-$E$2*E18)</f>
         <v>145.12782841819489</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <f t="shared" ref="D19:D21" si="15">1/$D$3*($F$3-$B$3*B18-$C$3*C18-$E$3*E18)</f>
         <v>-0.86807628771053391</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="20">
         <f t="shared" ref="E19:E21" si="16">1/$E$4*($F$4-$B$4*B18-$C$4*C18-$D$4*D18)</f>
         <v>23.154219965986691</v>
       </c>
@@ -1434,19 +1576,19 @@
       <c r="A20" s="13">
         <v>12</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <f t="shared" si="13"/>
         <v>-1.7617245226243505</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <f t="shared" si="14"/>
         <v>145.12241913322342</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <f t="shared" si="15"/>
         <v>-0.86809376068353528</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <f t="shared" si="16"/>
         <v>23.154369929938934</v>
       </c>
@@ -1475,19 +1617,19 @@
       <c r="A21" s="13">
         <v>13</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <f t="shared" si="13"/>
         <v>-1.7615475184130363</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <f t="shared" si="14"/>
         <v>145.12343228910197</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <f t="shared" si="15"/>
         <v>-0.86807608670651382</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <f t="shared" si="16"/>
         <v>23.154251257032449</v>
       </c>
@@ -1516,19 +1658,19 @@
       <c r="A22" s="13">
         <v>14</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <f t="shared" ref="B22:B24" si="17">1/$B$1*($F$1-$C$1*C21-$D$1*D21-$E$1*E21)</f>
         <v>-1.7615899580229968</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <f t="shared" ref="C22:C24" si="18">1/$C$2*($F$2-$B$2*B21-$D$2*D21-$E$2*E21)</f>
         <v>145.12260116648636</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <f t="shared" ref="D22:D24" si="19">1/$D$3*($F$3-$B$3*B21-$C$3*C21-$E$3*E21)</f>
         <v>-0.86807923887669203</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="20">
         <f t="shared" ref="E22:E24" si="20">1/$E$4*($F$4-$B$4*B21-$C$4*C21-$D$4*D21)</f>
         <v>23.154298726563532</v>
       </c>
@@ -1557,19 +1699,19 @@
       <c r="A23" s="13">
         <v>15</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <f t="shared" si="17"/>
         <v>-1.7615602718997314</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <f t="shared" si="18"/>
         <v>145.12291478847106</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <f t="shared" si="19"/>
         <v>-0.86807721141307126</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="20">
         <f t="shared" si="20"/>
         <v>23.154285640607434</v>
       </c>
@@ -1598,19 +1740,19 @@
       <c r="A24" s="13">
         <v>16</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="32">
         <f t="shared" si="17"/>
         <v>-1.7615709858695399</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="33">
         <f t="shared" si="18"/>
         <v>145.12282356715252</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="33">
         <f t="shared" si="19"/>
         <v>-0.86807828821404898</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="34">
         <f t="shared" si="20"/>
         <v>23.154294851571944</v>
       </c>
@@ -1618,7 +1760,7 @@
         <f t="shared" si="8"/>
         <v>нет</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="25">
         <f t="shared" si="0"/>
         <v>1.0713969808451296E-5</v>
       </c>
@@ -1639,40 +1781,40 @@
       <c r="A25" s="13">
         <v>17</v>
       </c>
-      <c r="B25" s="35">
-        <f t="shared" ref="B25:B29" si="21">1/$B$1*($F$1-$C$1*C24-$D$1*D24-$E$1*E24)</f>
+      <c r="B25" s="32">
+        <f t="shared" ref="B25:B27" si="21">1/$B$1*($F$1-$C$1*C24-$D$1*D24-$E$1*E24)</f>
         <v>-1.7615673170432111</v>
       </c>
-      <c r="C25" s="36">
-        <f t="shared" ref="C25:C29" si="22">1/$C$2*($F$2-$B$2*B24-$D$2*D24-$E$2*E24)</f>
+      <c r="C25" s="33">
+        <f t="shared" ref="C25:C27" si="22">1/$C$2*($F$2-$B$2*B24-$D$2*D24-$E$2*E24)</f>
         <v>145.12288673240309</v>
       </c>
-      <c r="D25" s="36">
-        <f t="shared" ref="D25:D29" si="23">1/$D$3*($F$3-$B$3*B24-$C$3*C24-$E$3*E24)</f>
+      <c r="D25" s="33">
+        <f t="shared" ref="D25:D27" si="23">1/$D$3*($F$3-$B$3*B24-$C$3*C24-$E$3*E24)</f>
         <v>-0.86807805476617184</v>
       </c>
-      <c r="E25" s="37">
-        <f t="shared" ref="E25:E29" si="24">1/$E$4*($F$4-$B$4*B24-$C$4*C24-$D$4*D24)</f>
+      <c r="E25" s="34">
+        <f t="shared" ref="E25:E27" si="24">1/$E$4*($F$4-$B$4*B24-$C$4*C24-$D$4*D24)</f>
         <v>23.154291968788055</v>
       </c>
-      <c r="F25" s="33" t="str">
+      <c r="F25" s="30" t="str">
         <f t="shared" si="8"/>
         <v>нет</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="25">ABS(B25-B24)</f>
+      <c r="J25" s="25">
+        <f t="shared" ref="J25:J27" si="25">ABS(B25-B24)</f>
         <v>3.6688263287398826E-6</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" ref="K25:K29" si="26">ABS(C25-C24)</f>
+        <f t="shared" ref="K25:K27" si="26">ABS(C25-C24)</f>
         <v>6.3165250566044051E-5</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" ref="L25:L29" si="27">ABS(D25-D24)</f>
+        <f t="shared" ref="L25:L27" si="27">ABS(D25-D24)</f>
         <v>2.334478771404136E-7</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25:M29" si="28">ABS(E25-E24)</f>
+        <f t="shared" ref="M25:M27" si="28">ABS(E25-E24)</f>
         <v>2.8827838889355917E-6</v>
       </c>
     </row>
@@ -1680,27 +1822,27 @@
       <c r="A26" s="13">
         <v>18</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="32">
         <f t="shared" si="21"/>
         <v>-1.7615694993320201</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="33">
         <f t="shared" si="22"/>
         <v>145.12286755033881</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="33">
         <f t="shared" si="23"/>
         <v>-0.86807823073787627</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="34">
         <f t="shared" si="24"/>
         <v>23.154293143223445</v>
       </c>
-      <c r="F26" s="33" t="str">
+      <c r="F26" s="30" t="str">
         <f t="shared" si="8"/>
         <v>нет</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="25">
         <f t="shared" si="25"/>
         <v>2.1822888089939596E-6</v>
       </c>
@@ -1721,27 +1863,27 @@
       <c r="A27" s="14">
         <v>19</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="26">
         <f t="shared" si="21"/>
         <v>-1.7615688057163696</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="27">
         <f t="shared" si="22"/>
         <v>145.12287574517782</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <f t="shared" si="23"/>
         <v>-0.86807816694811946</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <f t="shared" si="24"/>
         <v>23.154292501874206</v>
       </c>
-      <c r="F27" s="34" t="str">
+      <c r="F27" s="31" t="str">
         <f t="shared" si="8"/>
         <v>да</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="29">
         <f t="shared" si="25"/>
         <v>6.9361565047110219E-7</v>
       </c>
@@ -1760,32 +1902,32 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1793,48 +1935,48 @@
       <c r="A36" s="12">
         <v>0</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="22">
         <f>F1/B1</f>
         <v>0.21357063403781976</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="23">
         <f>F2/C2</f>
         <v>-5.8148148148148389</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="23">
         <f>F3/D3</f>
         <v>-4.7696749089996236E-3</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="24">
         <f>F4/E4</f>
         <v>22.673494809688577</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>1</v>
       </c>
-      <c r="B37" s="24">
-        <f>1/$B$1*($F$1-$C$1*C36-$D$1*D36-$E$1*E36)</f>
+      <c r="B37" s="21">
+        <f t="shared" ref="B37:B50" si="29">1/$B$1*($F$1-$C$1*C36-$D$1*D36-$E$1*E36)</f>
         <v>2.6965829415944724</v>
       </c>
-      <c r="C37" s="22">
-        <f>1/$C$2*($F$2-$B$2*B37-$D$2*D36-$E$2*E36)</f>
+      <c r="C37" s="19">
+        <f t="shared" ref="C37:C50" si="30">1/$C$2*($F$2-$B$2*B37-$D$2*D36-$E$2*E36)</f>
         <v>137.78358821307631</v>
       </c>
-      <c r="D37" s="22">
-        <f>1/$D$3*($F$3-$B$3*B37-$C$3*C37-$E$3*E36)</f>
+      <c r="D37" s="19">
+        <f t="shared" ref="D37:D50" si="31">1/$D$3*($F$3-$B$3*B37-$C$3*C37-$E$3*E36)</f>
         <v>-0.90638755723242892</v>
       </c>
-      <c r="E37" s="23">
-        <f>1/$E$4*($F$4-$B$4*B37-$C$4*C37-$D$4*D37)</f>
+      <c r="E37" s="20">
+        <f t="shared" ref="E37:E50" si="32">1/$E$4*($F$4-$B$4*B37-$C$4*C37-$D$4*D37)</f>
         <v>24.929815984335928</v>
       </c>
       <c r="F37" s="13" t="str">
@@ -1862,20 +2004,20 @@
       <c r="A38" s="13">
         <v>2</v>
       </c>
-      <c r="B38" s="24">
-        <f>1/$B$1*($F$1-$C$1*C37-$D$1*D37-$E$1*E37)</f>
+      <c r="B38" s="21">
+        <f t="shared" si="29"/>
         <v>-1.3612407422105359</v>
       </c>
-      <c r="C38" s="22">
-        <f>1/$C$2*($F$2-$B$2*B38-$D$2*D37-$E$2*E37)</f>
+      <c r="C38" s="19">
+        <f t="shared" si="30"/>
         <v>156.58898748380415</v>
       </c>
-      <c r="D38" s="22">
-        <f>1/$D$3*($F$3-$B$3*B38-$C$3*C38-$E$3*E37)</f>
+      <c r="D38" s="19">
+        <f t="shared" si="31"/>
         <v>-0.94352796285937501</v>
       </c>
-      <c r="E38" s="23">
-        <f>1/$E$4*($F$4-$B$4*B38-$C$4*C38-$D$4*D38)</f>
+      <c r="E38" s="20">
+        <f t="shared" si="32"/>
         <v>23.410451014873647</v>
       </c>
       <c r="F38" s="13" t="str">
@@ -1883,19 +2025,19 @@
         <v>нет</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:J49" si="29">ABS(B38-B37)</f>
+        <f t="shared" ref="J38:J48" si="33">ABS(B38-B37)</f>
         <v>4.0578236838050081</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" ref="K38:K49" si="30">ABS(C38-C37)</f>
+        <f t="shared" ref="K38:K49" si="34">ABS(C38-C37)</f>
         <v>18.805399270727833</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38:L49" si="31">ABS(D38-D37)</f>
+        <f t="shared" ref="L38:L49" si="35">ABS(D38-D37)</f>
         <v>3.7140405626946094E-2</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" ref="M38:M49" si="32">ABS(E38-E37)</f>
+        <f t="shared" ref="M38:M49" si="36">ABS(E38-E37)</f>
         <v>1.5193649694622806</v>
       </c>
     </row>
@@ -1903,40 +2045,40 @@
       <c r="A39" s="13">
         <v>3</v>
       </c>
-      <c r="B39" s="24">
-        <f>1/$B$1*($F$1-$C$1*C38-$D$1*D38-$E$1*E38)</f>
+      <c r="B39" s="21">
+        <f t="shared" si="29"/>
         <v>-2.0778256383144256</v>
       </c>
-      <c r="C39" s="22">
-        <f>1/$C$2*($F$2-$B$2*B39-$D$2*D38-$E$2*E38)</f>
+      <c r="C39" s="19">
+        <f t="shared" si="30"/>
         <v>147.12426958476397</v>
       </c>
-      <c r="D39" s="22">
-        <f>1/$D$3*($F$3-$B$3*B39-$C$3*C39-$E$3*E38)</f>
+      <c r="D39" s="19">
+        <f t="shared" si="31"/>
         <v>-0.8741534672472725</v>
       </c>
-      <c r="E39" s="23">
-        <f>1/$E$4*($F$4-$B$4*B39-$C$4*C39-$D$4*D39)</f>
+      <c r="E39" s="20">
+        <f t="shared" si="32"/>
         <v>23.04014942765631</v>
       </c>
       <c r="F39" s="13" t="str">
-        <f t="shared" ref="F39:F57" si="33">IF(MAX(J39:M39)&lt;$H$1, "да", "нет")</f>
+        <f t="shared" ref="F39:F50" si="37">IF(MAX(J39:M39)&lt;$H$1, "да", "нет")</f>
         <v>нет</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.71658489610388965</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9.4647178990401812</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>6.9374495612102516E-2</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.37030158721733741</v>
       </c>
     </row>
@@ -1944,40 +2086,40 @@
       <c r="A40" s="13">
         <v>4</v>
       </c>
-      <c r="B40" s="24">
-        <f>1/$B$1*($F$1-$C$1*C39-$D$1*D39-$E$1*E39)</f>
+      <c r="B40" s="21">
+        <f t="shared" si="29"/>
         <v>-1.8329801883863661</v>
       </c>
-      <c r="C40" s="22">
-        <f>1/$C$2*($F$2-$B$2*B40-$D$2*D39-$E$2*E39)</f>
+      <c r="C40" s="19">
+        <f t="shared" si="30"/>
         <v>144.42813925106339</v>
       </c>
-      <c r="D40" s="22">
-        <f>1/$D$3*($F$3-$B$3*B40-$C$3*C40-$E$3*E39)</f>
+      <c r="D40" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86264030724206198</v>
       </c>
-      <c r="E40" s="23">
-        <f>1/$E$4*($F$4-$B$4*B40-$C$4*C40-$D$4*D40)</f>
+      <c r="E40" s="20">
+        <f t="shared" si="32"/>
         <v>23.119372313592315</v>
       </c>
       <c r="F40" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J40" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" si="29"/>
         <v>0.24484544992805946</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.6961303337005802</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.1513160005210521E-2</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.9222885936005127E-2</v>
       </c>
     </row>
@@ -1985,40 +2127,40 @@
       <c r="A41" s="13">
         <v>5</v>
       </c>
-      <c r="B41" s="24">
-        <f>1/$B$1*($F$1-$C$1*C40-$D$1*D40-$E$1*E40)</f>
+      <c r="B41" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7443864410171743</v>
       </c>
-      <c r="C41" s="22">
-        <f>1/$C$2*($F$2-$B$2*B41-$D$2*D40-$E$2*E40)</f>
+      <c r="C41" s="19">
+        <f t="shared" si="30"/>
         <v>144.87410352125485</v>
       </c>
-      <c r="D41" s="22">
-        <f>1/$D$3*($F$3-$B$3*B41-$C$3*C41-$E$3*E40)</f>
+      <c r="D41" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86691649243796454</v>
       </c>
-      <c r="E41" s="23">
-        <f>1/$E$4*($F$4-$B$4*B41-$C$4*C41-$D$4*D41)</f>
+      <c r="E41" s="20">
+        <f t="shared" si="32"/>
         <v>23.159377154898511</v>
       </c>
       <c r="F41" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J41" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" si="29"/>
         <v>8.8593747369191789E-2</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.44596427019146745</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4.2761851959025599E-3</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4.0004841306195971E-2</v>
       </c>
     </row>
@@ -2026,40 +2168,40 @@
       <c r="A42" s="13">
         <v>6</v>
       </c>
-      <c r="B42" s="24">
-        <f>1/$B$1*($F$1-$C$1*C41-$D$1*D41-$E$1*E41)</f>
+      <c r="B42" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7536216174386823</v>
       </c>
-      <c r="C42" s="22">
-        <f>1/$C$2*($F$2-$B$2*B42-$D$2*D41-$E$2*E41)</f>
+      <c r="C42" s="19">
+        <f t="shared" si="30"/>
         <v>145.1493952478024</v>
       </c>
-      <c r="D42" s="22">
-        <f>1/$D$3*($F$3-$B$3*B42-$C$3*C42-$E$3*E41)</f>
+      <c r="D42" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86838170639424339</v>
       </c>
-      <c r="E42" s="23">
-        <f>1/$E$4*($F$4-$B$4*B42-$C$4*C42-$D$4*D42)</f>
+      <c r="E42" s="20">
+        <f t="shared" si="32"/>
         <v>23.157773754680157</v>
       </c>
       <c r="F42" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J42" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="29"/>
         <v>9.2351764215079513E-3</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.2752917265475503</v>
       </c>
       <c r="L42" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.4652139562788546E-3</v>
       </c>
       <c r="M42" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.6034002183538121E-3</v>
       </c>
     </row>
@@ -2067,40 +2209,40 @@
       <c r="A43" s="13">
         <v>7</v>
       </c>
-      <c r="B43" s="24">
-        <f>1/$B$1*($F$1-$C$1*C42-$D$1*D42-$E$1*E42)</f>
+      <c r="B43" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7620058121305802</v>
       </c>
-      <c r="C43" s="22">
-        <f>1/$C$2*($F$2-$B$2*B43-$D$2*D42-$E$2*E42)</f>
+      <c r="C43" s="19">
+        <f t="shared" si="30"/>
         <v>145.14648701336884</v>
       </c>
-      <c r="D43" s="22">
-        <f>1/$D$3*($F$3-$B$3*B43-$C$3*C43-$E$3*E42)</f>
+      <c r="D43" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86821039416054957</v>
       </c>
-      <c r="E43" s="23">
-        <f>1/$E$4*($F$4-$B$4*B43-$C$4*C43-$D$4*D43)</f>
+      <c r="E43" s="20">
+        <f t="shared" si="32"/>
         <v>23.154301298622141</v>
       </c>
       <c r="F43" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J43" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="29"/>
         <v>8.3841946918978838E-3</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.9082344335620292E-3</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.7131223369382109E-4</v>
       </c>
       <c r="M43" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.4724560580166042E-3</v>
       </c>
     </row>
@@ -2108,40 +2250,40 @@
       <c r="A44" s="13">
         <v>8</v>
       </c>
-      <c r="B44" s="24">
-        <f>1/$B$1*($F$1-$C$1*C43-$D$1*D43-$E$1*E43)</f>
+      <c r="B44" s="21">
+        <f t="shared" si="29"/>
         <v>-1.76227328352347</v>
       </c>
-      <c r="C44" s="22">
-        <f>1/$C$2*($F$2-$B$2*B44-$D$2*D43-$E$2*E43)</f>
+      <c r="C44" s="19">
+        <f t="shared" si="30"/>
         <v>145.1235837428398</v>
       </c>
-      <c r="D44" s="22">
-        <f>1/$D$3*($F$3-$B$3*B44-$C$3*C44-$E$3*E43)</f>
+      <c r="D44" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86806946308224753</v>
       </c>
-      <c r="E44" s="23">
-        <f>1/$E$4*($F$4-$B$4*B44-$C$4*C44-$D$4*D44)</f>
+      <c r="E44" s="20">
+        <f t="shared" si="32"/>
         <v>23.154008565734451</v>
       </c>
       <c r="F44" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J44" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="29"/>
         <v>2.6747139288985089E-4</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.2903270529042175E-2</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.4093107830204232E-4</v>
       </c>
       <c r="M44" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.9273288769005035E-4</v>
       </c>
     </row>
@@ -2149,40 +2291,40 @@
       <c r="A45" s="13">
         <v>9</v>
       </c>
-      <c r="B45" s="24">
-        <f>1/$B$1*($F$1-$C$1*C44-$D$1*D44-$E$1*E44)</f>
+      <c r="B45" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7616192295807516</v>
       </c>
-      <c r="C45" s="22">
-        <f>1/$C$2*($F$2-$B$2*B45-$D$2*D44-$E$2*E44)</f>
+      <c r="C45" s="19">
+        <f t="shared" si="30"/>
         <v>145.12102496469905</v>
       </c>
-      <c r="D45" s="22">
-        <f>1/$D$3*($F$3-$B$3*B45-$C$3*C45-$E$3*E44)</f>
+      <c r="D45" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86806628391642504</v>
       </c>
-      <c r="E45" s="23">
-        <f>1/$E$4*($F$4-$B$4*B45-$C$4*C45-$D$4*D45)</f>
+      <c r="E45" s="20">
+        <f t="shared" si="32"/>
         <v>23.154257232618978</v>
       </c>
       <c r="F45" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J45" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" si="29"/>
         <v>6.5405394271844663E-4</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2.558778140752338E-3</v>
       </c>
       <c r="L45" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3.1791658224866737E-6</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.4866688452718222E-4</v>
       </c>
     </row>
@@ -2190,40 +2332,40 @@
       <c r="A46" s="13">
         <v>10</v>
       </c>
-      <c r="B46" s="24">
-        <f>1/$B$1*($F$1-$C$1*C45-$D$1*D45-$E$1*E45)</f>
+      <c r="B46" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7615174479832982</v>
       </c>
-      <c r="C46" s="22">
-        <f>1/$C$2*($F$2-$B$2*B46-$D$2*D45-$E$2*E45)</f>
+      <c r="C46" s="19">
+        <f t="shared" si="30"/>
         <v>145.12258840396962</v>
       </c>
-      <c r="D46" s="22">
-        <f>1/$D$3*($F$3-$B$3*B46-$C$3*C46-$E$3*E45)</f>
+      <c r="D46" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86807743880806454</v>
       </c>
-      <c r="E46" s="23">
-        <f>1/$E$4*($F$4-$B$4*B46-$C$4*C46-$D$4*D46)</f>
+      <c r="E46" s="20">
+        <f t="shared" si="32"/>
         <v>23.15431157683345</v>
       </c>
       <c r="F46" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J46" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" si="29"/>
         <v>1.0178159745333204E-4</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1.5634392705692335E-3</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.1154891639497677E-5</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>5.434421447247928E-5</v>
       </c>
     </row>
@@ -2231,40 +2373,40 @@
       <c r="A47" s="13">
         <v>11</v>
       </c>
-      <c r="B47" s="24">
-        <f>1/$B$1*($F$1-$C$1*C46-$D$1*D46-$E$1*E46)</f>
+      <c r="B47" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7615585893716621</v>
       </c>
-      <c r="C47" s="22">
-        <f>1/$C$2*($F$2-$B$2*B47-$D$2*D46-$E$2*E46)</f>
+      <c r="C47" s="19">
+        <f t="shared" si="30"/>
         <v>145.12298891336727</v>
       </c>
-      <c r="D47" s="22">
-        <f>1/$D$3*($F$3-$B$3*B47-$C$3*C47-$E$3*E46)</f>
+      <c r="D47" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86807906145320612</v>
       </c>
-      <c r="E47" s="23">
-        <f>1/$E$4*($F$4-$B$4*B47-$C$4*C47-$D$4*D47)</f>
+      <c r="E47" s="20">
+        <f t="shared" si="32"/>
         <v>23.15429784605621</v>
       </c>
       <c r="F47" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J47" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" si="29"/>
         <v>4.1141388363863385E-5</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.0050939765023941E-4</v>
       </c>
       <c r="L47" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1.6226451415857213E-6</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1.3730777240539283E-5</v>
       </c>
     </row>
@@ -2272,40 +2414,40 @@
       <c r="A48" s="13">
         <v>12</v>
       </c>
-      <c r="B48" s="24">
-        <f>1/$B$1*($F$1-$C$1*C47-$D$1*D47-$E$1*E47)</f>
+      <c r="B48" s="21">
+        <f t="shared" si="29"/>
         <v>-1.761571950166724</v>
       </c>
-      <c r="C48" s="22">
-        <f>1/$C$2*($F$2-$B$2*B48-$D$2*D47-$E$2*E47)</f>
+      <c r="C48" s="19">
+        <f t="shared" si="30"/>
         <v>145.12290976871134</v>
       </c>
-      <c r="D48" s="22">
-        <f>1/$D$3*($F$3-$B$3*B48-$C$3*C48-$E$3*E47)</f>
+      <c r="D48" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86807834595765898</v>
       </c>
-      <c r="E48" s="23">
-        <f>1/$E$4*($F$4-$B$4*B48-$C$4*C48-$D$4*D48)</f>
+      <c r="E48" s="20">
+        <f t="shared" si="32"/>
         <v>23.154291718102954</v>
       </c>
       <c r="F48" s="13" t="str">
+        <f t="shared" si="37"/>
+        <v>нет</v>
+      </c>
+      <c r="J48" s="6">
         <f t="shared" si="33"/>
-        <v>нет</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="29"/>
         <v>1.3360795061867492E-5</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>7.9144655927620988E-5</v>
       </c>
       <c r="L48" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.1549554714334107E-7</v>
       </c>
       <c r="M48" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6.1279532559410654E-6</v>
       </c>
     </row>
@@ -2313,24 +2455,24 @@
       <c r="A49" s="13">
         <v>13</v>
       </c>
-      <c r="B49" s="24">
-        <f>1/$B$1*($F$1-$C$1*C48-$D$1*D48-$E$1*E48)</f>
+      <c r="B49" s="21">
+        <f t="shared" si="29"/>
         <v>-1.7615702120696537</v>
       </c>
-      <c r="C49" s="22">
-        <f>1/$C$2*($F$2-$B$2*B49-$D$2*D48-$E$2*E48)</f>
+      <c r="C49" s="19">
+        <f t="shared" si="30"/>
         <v>145.12286729922835</v>
       </c>
-      <c r="D49" s="22">
-        <f>1/$D$3*($F$3-$B$3*B49-$C$3*C49-$E$3*E48)</f>
+      <c r="D49" s="19">
+        <f t="shared" si="31"/>
         <v>-0.86807812567552478</v>
       </c>
-      <c r="E49" s="23">
-        <f>1/$E$4*($F$4-$B$4*B49-$C$4*C49-$D$4*D49)</f>
+      <c r="E49" s="20">
+        <f t="shared" si="32"/>
         <v>23.154292094384846</v>
       </c>
       <c r="F49" s="13" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>нет</v>
       </c>
       <c r="J49" s="6">
@@ -2338,15 +2480,15 @@
         <v>1.7380970702696175E-6</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>4.2469482991691621E-5</v>
       </c>
       <c r="L49" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.2028213420011156E-7</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3.7628189275551449E-7</v>
       </c>
     </row>
@@ -2354,24 +2496,24 @@
       <c r="A50" s="14">
         <v>14</v>
       </c>
-      <c r="B50" s="38">
-        <f>1/$B$1*($F$1-$C$1*C49-$D$1*D49-$E$1*E49)</f>
+      <c r="B50" s="35">
+        <f t="shared" si="29"/>
         <v>-1.7615689054781032</v>
       </c>
-      <c r="C50" s="39">
-        <f>1/$C$2*($F$2-$B$2*B50-$D$2*D49-$E$2*E49)</f>
+      <c r="C50" s="36">
+        <f t="shared" si="30"/>
         <v>145.12286859523519</v>
       </c>
-      <c r="D50" s="39">
-        <f>1/$D$3*($F$3-$B$3*B50-$C$3*C50-$E$3*E49)</f>
+      <c r="D50" s="36">
+        <f t="shared" si="31"/>
         <v>-0.86807815737790639</v>
       </c>
-      <c r="E50" s="40">
-        <f>1/$E$4*($F$4-$B$4*B50-$C$4*C50-$D$4*D50)</f>
+      <c r="E50" s="37">
+        <f t="shared" si="32"/>
         <v>23.154292642254607</v>
       </c>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>да</v>
       </c>
       <c r="J50" s="9">
@@ -2379,15 +2521,15 @@
         <v>1.3065915505094949E-6</v>
       </c>
       <c r="K50" s="9">
-        <f t="shared" ref="K50" si="34">ABS(C50-C49)</f>
+        <f t="shared" ref="K50" si="38">ABS(C50-C49)</f>
         <v>1.2960068431766558E-6</v>
       </c>
       <c r="L50" s="9">
-        <f t="shared" ref="L50" si="35">ABS(D50-D49)</f>
+        <f t="shared" ref="L50" si="39">ABS(D50-D49)</f>
         <v>3.1702381608766927E-8</v>
       </c>
       <c r="M50" s="14">
-        <f t="shared" ref="M50" si="36">ABS(E50-E49)</f>
+        <f t="shared" ref="M50" si="40">ABS(E50-E49)</f>
         <v>5.4786976022569434E-7</v>
       </c>
     </row>
@@ -2401,4 +2543,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04AD3F3-264D-425D-9BDF-822A79BC33A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>